--- a/biology/Botanique/Abelmoschus_caillei/Abelmoschus_caillei.xlsx
+++ b/biology/Botanique/Abelmoschus_caillei/Abelmoschus_caillei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abelmoschus caillei, le gombo ouest-africain, est une espèce de plantes dicotylédones de la famille des Malvaceae, originaire d'Afrique occidentale. L'espèce est inconnue à l'état sauvage.
 Ce sont des plantes herbacées, annuelles ou bisannuelles, à port dressé et pouvant atteindre 4 mètres de haut. La plante est cultivée pour son fruit consommé comme légume, à l'instar du gombo commun (Abelmoschus esculentus).
@@ -512,14 +524,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (27 mars 2019)[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (27 mars 2019) : 
 Abelmoschus caillei (A.Chev.) Stevels
 Abelmoschus manihot var. manihot
 Abelmoschus platidactylus (Bakh.) Nakai
 Hibiscus japonicus Miq.
-Hibiscus manihot A. Chev.[3]
+Hibiscus manihot A. Chev.
 Hibiscus manihot L.
 Hibiscus papyriferus Salisb.</t>
         </is>
